--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1875.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1875.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.608027244896774</v>
+        <v>2.113767862319946</v>
       </c>
       <c r="B1">
-        <v>4.230911281452163</v>
+        <v>2.075846433639526</v>
       </c>
       <c r="C1">
-        <v>4.466866495466927</v>
+        <v>1.973269581794739</v>
       </c>
       <c r="D1">
-        <v>1.211453070024753</v>
+        <v>2.629579782485962</v>
       </c>
       <c r="E1">
-        <v>0.7128985070458252</v>
+        <v>5.166424751281738</v>
       </c>
     </row>
   </sheetData>
